--- a/Code/Results/Cases/Case_6_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_23/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.927204321089704</v>
+        <v>0.9907009472372295</v>
       </c>
       <c r="C2">
-        <v>0.227563025543688</v>
+        <v>0.05371980253047326</v>
       </c>
       <c r="D2">
-        <v>0.1413686217675547</v>
+        <v>0.1221369566391104</v>
       </c>
       <c r="E2">
-        <v>0.01782354298957545</v>
+        <v>0.01645353692718121</v>
       </c>
       <c r="F2">
-        <v>7.575742137860345</v>
+        <v>8.064260948238029</v>
       </c>
       <c r="G2">
-        <v>0.0008755201580925838</v>
+        <v>0.0009069466716799521</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.141259377928094</v>
+        <v>0.1905223637353046</v>
       </c>
       <c r="K2">
-        <v>0.4403533343979618</v>
+        <v>0.8125452889470637</v>
       </c>
       <c r="L2">
-        <v>0.07811162062333921</v>
+        <v>0.05677769732789884</v>
       </c>
       <c r="M2">
-        <v>0.2991448233312255</v>
+        <v>0.1653829632327231</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.722048507198878</v>
+        <v>0.9031113059386087</v>
       </c>
       <c r="C3">
-        <v>0.1941275222245338</v>
+        <v>0.04592532467766119</v>
       </c>
       <c r="D3">
-        <v>0.1239911507724258</v>
+        <v>0.1084569630459384</v>
       </c>
       <c r="E3">
-        <v>0.01753865788522369</v>
+        <v>0.01675107937536247</v>
       </c>
       <c r="F3">
-        <v>6.928609711896996</v>
+        <v>7.428218636729895</v>
       </c>
       <c r="G3">
-        <v>0.0008859911319630511</v>
+        <v>0.0009155988149061663</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1352395047327981</v>
+        <v>0.1812352745546804</v>
       </c>
       <c r="K3">
-        <v>0.3882766543034819</v>
+        <v>0.7282840700353574</v>
       </c>
       <c r="L3">
-        <v>0.07523525781099494</v>
+        <v>0.05578898046127989</v>
       </c>
       <c r="M3">
-        <v>0.2707746312283668</v>
+        <v>0.1531526912316394</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.60077726635879</v>
+        <v>0.8516067140136272</v>
       </c>
       <c r="C4">
-        <v>0.1741561116023149</v>
+        <v>0.04125502446058249</v>
       </c>
       <c r="D4">
-        <v>0.1134980409881194</v>
+        <v>0.1001416552889864</v>
       </c>
       <c r="E4">
-        <v>0.01736937554300066</v>
+        <v>0.01694821447952899</v>
       </c>
       <c r="F4">
-        <v>6.539913049707593</v>
+        <v>7.043457907181931</v>
       </c>
       <c r="G4">
-        <v>0.0008925763849598848</v>
+        <v>0.0009210551610033596</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1316076959372303</v>
+        <v>0.1756073593647756</v>
       </c>
       <c r="K4">
-        <v>0.3574162919271657</v>
+        <v>0.6785720915313647</v>
       </c>
       <c r="L4">
-        <v>0.07367911011539974</v>
+        <v>0.05534550626188306</v>
       </c>
       <c r="M4">
-        <v>0.2541116268736801</v>
+        <v>0.1460504289922042</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.552425133975731</v>
+        <v>0.8311469139289613</v>
       </c>
       <c r="C5">
-        <v>0.1661383619136103</v>
+        <v>0.03937647250796061</v>
       </c>
       <c r="D5">
-        <v>0.1092588197603419</v>
+        <v>0.09676959775212168</v>
       </c>
       <c r="E5">
-        <v>0.01730159442107437</v>
+        <v>0.01703217211878183</v>
       </c>
       <c r="F5">
-        <v>6.383410665300516</v>
+        <v>6.887923368158596</v>
       </c>
       <c r="G5">
-        <v>0.0008953015633817082</v>
+        <v>0.0009233163821135211</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1301409396240416</v>
+        <v>0.1733297187371576</v>
       </c>
       <c r="K5">
-        <v>0.3450916202265333</v>
+        <v>0.658780272737161</v>
       </c>
       <c r="L5">
-        <v>0.07309473983390902</v>
+        <v>0.05520408118231401</v>
       </c>
       <c r="M5">
-        <v>0.2474947294110841</v>
+        <v>0.1432516221414453</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.544457612247612</v>
+        <v>0.8277803072039092</v>
       </c>
       <c r="C6">
-        <v>0.1648137780382797</v>
+        <v>0.03906590596385939</v>
       </c>
       <c r="D6">
-        <v>0.1085569128479165</v>
+        <v>0.09621053589960837</v>
       </c>
       <c r="E6">
-        <v>0.01729040622258626</v>
+        <v>0.01704633185646598</v>
       </c>
       <c r="F6">
-        <v>6.357530301003493</v>
+        <v>6.862167629965825</v>
       </c>
       <c r="G6">
-        <v>0.0008957566580359545</v>
+        <v>0.0009236941769461549</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1298981036584053</v>
+        <v>0.1729523899336485</v>
       </c>
       <c r="K6">
-        <v>0.3430594874741573</v>
+        <v>0.6555208249100701</v>
       </c>
       <c r="L6">
-        <v>0.07300062890341863</v>
+        <v>0.05518291983651125</v>
       </c>
       <c r="M6">
-        <v>0.2464060112904072</v>
+        <v>0.1427924526060451</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.60012099541035</v>
+        <v>0.8513287001561309</v>
       </c>
       <c r="C7">
-        <v>0.1740475169560369</v>
+        <v>0.04122959548525529</v>
       </c>
       <c r="D7">
-        <v>0.1134407299417717</v>
+        <v>0.100096117695756</v>
       </c>
       <c r="E7">
-        <v>0.01736845681996746</v>
+        <v>0.01694933210001004</v>
       </c>
       <c r="F7">
-        <v>6.537795083473128</v>
+        <v>7.041355462323509</v>
       </c>
       <c r="G7">
-        <v>0.0008926129660443456</v>
+        <v>0.000921085501876792</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1315878648816167</v>
+        <v>0.1755765821214297</v>
       </c>
       <c r="K7">
-        <v>0.3572490966453827</v>
+        <v>0.6783033386716824</v>
       </c>
       <c r="L7">
-        <v>0.07367103134691888</v>
+        <v>0.05534344218132148</v>
       </c>
       <c r="M7">
-        <v>0.2540217079821865</v>
+        <v>0.1460123057403599</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.855420069952999</v>
+        <v>0.9600003540601563</v>
       </c>
       <c r="C8">
-        <v>0.2159062065368005</v>
+        <v>0.05100550371083301</v>
       </c>
       <c r="D8">
-        <v>0.1353353725566677</v>
+        <v>0.1173996699121602</v>
       </c>
       <c r="E8">
-        <v>0.01772400720561151</v>
+        <v>0.0165531264977643</v>
       </c>
       <c r="F8">
-        <v>7.350640237691806</v>
+        <v>7.843634756183434</v>
       </c>
       <c r="G8">
-        <v>0.0008790996771982818</v>
+        <v>0.0009099010232397226</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1391684837603542</v>
+        <v>0.1873029003163325</v>
       </c>
       <c r="K8">
-        <v>0.4221474112790489</v>
+        <v>0.7830448129531078</v>
       </c>
       <c r="L8">
-        <v>0.07707436100017162</v>
+        <v>0.05640167278950869</v>
       </c>
       <c r="M8">
-        <v>0.2891951566675814</v>
+        <v>0.1610770813552023</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.399104593402512</v>
+        <v>1.193333873160043</v>
       </c>
       <c r="C9">
-        <v>0.3034200889100021</v>
+        <v>0.07131426586601464</v>
       </c>
       <c r="D9">
-        <v>0.1800584788906292</v>
+        <v>0.1522324770056258</v>
       </c>
       <c r="E9">
-        <v>0.01847713139736129</v>
+        <v>0.01589122574325774</v>
       </c>
       <c r="F9">
-        <v>9.027344073111578</v>
+        <v>9.472277987653172</v>
       </c>
       <c r="G9">
-        <v>0.0008537173952085342</v>
+        <v>0.0008890344007271295</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1546951969290191</v>
+        <v>0.2110337706642085</v>
       </c>
       <c r="K9">
-        <v>0.5597453959559147</v>
+        <v>1.006650525691839</v>
       </c>
       <c r="L9">
-        <v>0.08556817658954685</v>
+        <v>0.05986702599132343</v>
       </c>
       <c r="M9">
-        <v>0.365026588990716</v>
+        <v>0.1941972306362025</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.834037608988979</v>
+        <v>1.380476556609835</v>
       </c>
       <c r="C10">
-        <v>0.3726339718516272</v>
+        <v>0.08727604276650425</v>
       </c>
       <c r="D10">
-        <v>0.2146173478770947</v>
+        <v>0.1787309640589854</v>
       </c>
       <c r="E10">
-        <v>0.01908277649019219</v>
+        <v>0.01547585920359706</v>
       </c>
       <c r="F10">
-        <v>10.33203805966986</v>
+        <v>10.71743651128537</v>
       </c>
       <c r="G10">
-        <v>0.0008355592079951624</v>
+        <v>0.0008742371772925139</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1667442280809084</v>
+        <v>0.2291421998520775</v>
       </c>
       <c r="K10">
-        <v>0.6695145065752612</v>
+        <v>1.185372982911076</v>
       </c>
       <c r="L10">
-        <v>0.09316460033924301</v>
+        <v>0.0634039818845693</v>
       </c>
       <c r="M10">
-        <v>0.4262853437044285</v>
+        <v>0.2212529828557663</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.042065010773683</v>
+        <v>1.469889683101201</v>
       </c>
       <c r="C11">
-        <v>0.4056203535819805</v>
+        <v>0.09485332429906634</v>
       </c>
       <c r="D11">
-        <v>0.2308692120032276</v>
+        <v>0.1910731242816723</v>
       </c>
       <c r="E11">
-        <v>0.01937468557133482</v>
+        <v>0.01530252710780688</v>
       </c>
       <c r="F11">
-        <v>10.94728410925632</v>
+        <v>11.29820370705193</v>
       </c>
       <c r="G11">
-        <v>0.0008273549490841816</v>
+        <v>0.0008675920492942938</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1724280694795723</v>
+        <v>0.2375834281439779</v>
       </c>
       <c r="K11">
-        <v>0.7219685413698613</v>
+        <v>1.270670156271279</v>
       </c>
       <c r="L11">
-        <v>0.09698062091197812</v>
+        <v>0.06526506186085612</v>
       </c>
       <c r="M11">
-        <v>0.4557209558206736</v>
+        <v>0.2342910449386579</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.122546326276279</v>
+        <v>1.504446361924323</v>
       </c>
       <c r="C12">
-        <v>0.4183703553513851</v>
+        <v>0.09777679485425494</v>
       </c>
       <c r="D12">
-        <v>0.2371155133509291</v>
+        <v>0.1957967117122905</v>
       </c>
       <c r="E12">
-        <v>0.01948809544972052</v>
+        <v>0.01523916067790765</v>
       </c>
       <c r="F12">
-        <v>11.18396599209098</v>
+        <v>11.52054233394625</v>
       </c>
       <c r="G12">
-        <v>0.0008242513597813451</v>
+        <v>0.000865085349704517</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1746157725309061</v>
+        <v>0.240814574222469</v>
       </c>
       <c r="K12">
-        <v>0.7422567086623246</v>
+        <v>1.303626492578786</v>
       </c>
       <c r="L12">
-        <v>0.09848400471219776</v>
+        <v>0.06600959393063022</v>
       </c>
       <c r="M12">
-        <v>0.4671290477629597</v>
+        <v>0.239346479227855</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.105133083859471</v>
+        <v>1.496971502543573</v>
       </c>
       <c r="C13">
-        <v>0.4156121438761318</v>
+        <v>0.09714461585285505</v>
       </c>
       <c r="D13">
-        <v>0.2357658891028933</v>
+        <v>0.1947770382992218</v>
       </c>
       <c r="E13">
-        <v>0.0194635337749216</v>
+        <v>0.01525270634865228</v>
       </c>
       <c r="F13">
-        <v>11.13281756465119</v>
+        <v>11.47254426243916</v>
       </c>
       <c r="G13">
-        <v>0.0008249197170024924</v>
+        <v>0.0008656248294029721</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1741429296866812</v>
+        <v>0.2401170563889323</v>
       </c>
       <c r="K13">
-        <v>0.7378672822697325</v>
+        <v>1.29649816116239</v>
       </c>
       <c r="L13">
-        <v>0.09815751439478504</v>
+        <v>0.06584741524576287</v>
       </c>
       <c r="M13">
-        <v>0.4646598493145362</v>
+        <v>0.238252215752059</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.048650540611561</v>
+        <v>1.472718187055904</v>
       </c>
       <c r="C14">
-        <v>0.4066638460141689</v>
+        <v>0.09509270163121641</v>
       </c>
       <c r="D14">
-        <v>0.2313811549739881</v>
+        <v>0.1914606848137907</v>
       </c>
       <c r="E14">
-        <v>0.0193839550761159</v>
+        <v>0.01529726825067179</v>
       </c>
       <c r="F14">
-        <v>10.96667827191669</v>
+        <v>11.31644507293498</v>
       </c>
       <c r="G14">
-        <v>0.0008270995818238648</v>
+        <v>0.0008673856449450961</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1726073054977988</v>
+        <v>0.2378485293257526</v>
       </c>
       <c r="K14">
-        <v>0.7236287494225735</v>
+        <v>1.273367838852153</v>
       </c>
       <c r="L14">
-        <v>0.09710309492906077</v>
+        <v>0.06532549584531466</v>
       </c>
       <c r="M14">
-        <v>0.4566540403400552</v>
+        <v>0.2347045080412435</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.014283365617132</v>
+        <v>1.457955833121076</v>
       </c>
       <c r="C15">
-        <v>0.4012178519388101</v>
+        <v>0.09384316940163728</v>
       </c>
       <c r="D15">
-        <v>0.2287078771741164</v>
+        <v>0.189436087229339</v>
       </c>
       <c r="E15">
-        <v>0.01933560141429602</v>
+        <v>0.01532486020900725</v>
       </c>
       <c r="F15">
-        <v>10.86541379938291</v>
+        <v>11.22115547073054</v>
       </c>
       <c r="G15">
-        <v>0.0008284350695373072</v>
+        <v>0.000868465367137068</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1716714965287522</v>
+        <v>0.236463671617372</v>
       </c>
       <c r="K15">
-        <v>0.7149646098190203</v>
+        <v>1.25928789856323</v>
       </c>
       <c r="L15">
-        <v>0.09646504125723254</v>
+        <v>0.06501109833185126</v>
       </c>
       <c r="M15">
-        <v>0.4517854634956464</v>
+        <v>0.2325472482084017</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.820667166981536</v>
+        <v>1.374726143897192</v>
       </c>
       <c r="C16">
-        <v>0.3705119486765796</v>
+        <v>0.08678792569304505</v>
       </c>
       <c r="D16">
-        <v>0.2135672248141418</v>
+        <v>0.177930870373558</v>
       </c>
       <c r="E16">
-        <v>0.01906407123688902</v>
+        <v>0.01548750318489045</v>
       </c>
       <c r="F16">
-        <v>10.29231495435147</v>
+        <v>10.67979975435301</v>
       </c>
       <c r="G16">
-        <v>0.0008360961025620224</v>
+        <v>0.0008746729604943175</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1663773635781212</v>
+        <v>0.2285950865155186</v>
       </c>
       <c r="K16">
-        <v>0.6661423461909592</v>
+        <v>1.179885754284129</v>
       </c>
       <c r="L16">
-        <v>0.09292300028655376</v>
+        <v>0.06328772051302423</v>
       </c>
       <c r="M16">
-        <v>0.4243961655786208</v>
+        <v>0.2204167001127075</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.704657012801931</v>
+        <v>1.324819272680742</v>
       </c>
       <c r="C17">
-        <v>0.3520876836962259</v>
+        <v>0.08254654832950337</v>
       </c>
       <c r="D17">
-        <v>0.204425369903305</v>
+        <v>0.1709522541623016</v>
       </c>
       <c r="E17">
-        <v>0.0189020327352889</v>
+        <v>0.015591296273052</v>
       </c>
       <c r="F17">
-        <v>9.946687810967376</v>
+        <v>10.35160618260568</v>
       </c>
       <c r="G17">
-        <v>0.0008408069972545874</v>
+        <v>0.0008785013520719471</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1631856240205565</v>
+        <v>0.223823730714706</v>
       </c>
       <c r="K17">
-        <v>0.6368783629885257</v>
+        <v>1.132253342313675</v>
       </c>
       <c r="L17">
-        <v>0.09084669950517821</v>
+        <v>0.06229742764676161</v>
       </c>
       <c r="M17">
-        <v>0.4080193318452316</v>
+        <v>0.21317092003369</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.638872117785013</v>
+        <v>1.29651161556157</v>
       </c>
       <c r="C18">
-        <v>0.3416288346747933</v>
+        <v>0.08013620043514891</v>
       </c>
       <c r="D18">
-        <v>0.1992161152256529</v>
+        <v>0.1669648712422998</v>
       </c>
       <c r="E18">
-        <v>0.01881034039849183</v>
+        <v>0.01565246386780661</v>
       </c>
       <c r="F18">
-        <v>9.749898824999292</v>
+        <v>10.1641640783082</v>
       </c>
       <c r="G18">
-        <v>0.0008435221800819571</v>
+        <v>0.0008807116365477305</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1613684737879311</v>
+        <v>0.2210981822324385</v>
       </c>
       <c r="K18">
-        <v>0.6202793633283648</v>
+        <v>1.105227054570491</v>
       </c>
       <c r="L18">
-        <v>0.08968594075175673</v>
+        <v>0.06175133041782033</v>
       </c>
       <c r="M18">
-        <v>0.3987450148419711</v>
+        <v>0.2090711942308019</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.616753313753748</v>
+        <v>1.286993049540456</v>
       </c>
       <c r="C19">
-        <v>0.33811020207105</v>
+        <v>0.07932486452126852</v>
       </c>
       <c r="D19">
-        <v>0.1974603073164047</v>
+        <v>0.1656191261832589</v>
       </c>
       <c r="E19">
-        <v>0.01877953978227698</v>
+        <v>0.01567342570881269</v>
       </c>
       <c r="F19">
-        <v>9.683597897740668</v>
+        <v>10.10091708645948</v>
       </c>
       <c r="G19">
-        <v>0.0008444425927645588</v>
+        <v>0.0008814615037680257</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1607562476123761</v>
+        <v>0.220178435767977</v>
       </c>
       <c r="K19">
-        <v>0.6146974695133096</v>
+        <v>1.096137749142827</v>
       </c>
       <c r="L19">
-        <v>0.08929849460942307</v>
+        <v>0.06157036579732278</v>
       </c>
       <c r="M19">
-        <v>0.3956288245483179</v>
+        <v>0.2076943760750503</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.71690745386195</v>
+        <v>1.330090245676274</v>
       </c>
       <c r="C20">
-        <v>0.3540343751106434</v>
+        <v>0.08299497111784149</v>
       </c>
       <c r="D20">
-        <v>0.2053933685858453</v>
+        <v>0.171692335423117</v>
       </c>
       <c r="E20">
-        <v>0.01891912252491412</v>
+        <v>0.01558009516712877</v>
       </c>
       <c r="F20">
-        <v>9.983268831042835</v>
+        <v>10.38640327213483</v>
       </c>
       <c r="G20">
-        <v>0.0008403049679655917</v>
+        <v>0.0008780929736325603</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1635234175394089</v>
+        <v>0.2243296662109273</v>
       </c>
       <c r="K20">
-        <v>0.6399690399404108</v>
+        <v>1.137284977906006</v>
       </c>
       <c r="L20">
-        <v>0.09106421677118703</v>
+        <v>0.06240039041303902</v>
       </c>
       <c r="M20">
-        <v>0.4097474032561266</v>
+        <v>0.2139351325793903</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.065192409118538</v>
+        <v>1.479822326174144</v>
       </c>
       <c r="C21">
-        <v>0.4092847768838226</v>
+        <v>0.09569385504084948</v>
       </c>
       <c r="D21">
-        <v>0.2326664214587169</v>
+        <v>0.1924333518810073</v>
       </c>
       <c r="E21">
-        <v>0.0194072468205202</v>
+        <v>0.01528411749842684</v>
       </c>
       <c r="F21">
-        <v>11.01537192153626</v>
+        <v>11.36222663121669</v>
       </c>
       <c r="G21">
-        <v>0.0008264592586452678</v>
+        <v>0.0008668682115736548</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1730573416633163</v>
+        <v>0.238513864789752</v>
       </c>
       <c r="K21">
-        <v>0.7277988688891242</v>
+        <v>1.280143264979671</v>
       </c>
       <c r="L21">
-        <v>0.09741116302473785</v>
+        <v>0.06547768617861038</v>
       </c>
       <c r="M21">
-        <v>0.458998130012283</v>
+        <v>0.2357432343079218</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.30290184228744</v>
+        <v>1.581794630193116</v>
       </c>
       <c r="C22">
-        <v>0.446927830501437</v>
+        <v>0.1043136511074891</v>
       </c>
       <c r="D22">
-        <v>0.2510367426283864</v>
+        <v>0.2062842328747223</v>
       </c>
       <c r="E22">
-        <v>0.01974330410293712</v>
+        <v>0.0151039286975827</v>
       </c>
       <c r="F22">
-        <v>11.71182055747687</v>
+        <v>12.01425389847412</v>
       </c>
       <c r="G22">
-        <v>0.0008174260329455339</v>
+        <v>0.0008595870118575264</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1794980150111769</v>
+        <v>0.2479889155641146</v>
       </c>
       <c r="K22">
-        <v>0.7877144828607783</v>
+        <v>1.377379697820885</v>
       </c>
       <c r="L22">
-        <v>0.1019031255350029</v>
+        <v>0.06772273271557339</v>
       </c>
       <c r="M22">
-        <v>0.4927313408727727</v>
+        <v>0.2506924508063406</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.175018352789095</v>
+        <v>1.526963693474073</v>
       </c>
       <c r="C23">
-        <v>0.4266805488291254</v>
+        <v>0.09968061824373819</v>
       </c>
       <c r="D23">
-        <v>0.2411763635179653</v>
+        <v>0.1988616510428756</v>
       </c>
       <c r="E23">
-        <v>0.01956218994368752</v>
+        <v>0.01519887728579095</v>
       </c>
       <c r="F23">
-        <v>11.33789390438039</v>
+        <v>11.66482093809589</v>
       </c>
       <c r="G23">
-        <v>0.0008222476032488749</v>
+        <v>0.000863469097442617</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.176039002363737</v>
+        <v>0.2429112143769458</v>
       </c>
       <c r="K23">
-        <v>0.7554829509284815</v>
+        <v>1.325098866207952</v>
       </c>
       <c r="L23">
-        <v>0.09947178007222846</v>
+        <v>0.06650182293604701</v>
       </c>
       <c r="M23">
-        <v>0.4745725155980764</v>
+        <v>0.2426452451073864</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.711366210081849</v>
+        <v>1.327706047338097</v>
       </c>
       <c r="C24">
-        <v>0.3531538632293234</v>
+        <v>0.08279215236225923</v>
       </c>
       <c r="D24">
-        <v>0.2049555926398625</v>
+        <v>0.1713576683271185</v>
       </c>
       <c r="E24">
-        <v>0.01891139170280765</v>
+        <v>0.01558515453056408</v>
       </c>
       <c r="F24">
-        <v>9.966724624277106</v>
+        <v>10.3706676694259</v>
       </c>
       <c r="G24">
-        <v>0.0008405319137898086</v>
+        <v>0.0008782775724126754</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1633706460295414</v>
+        <v>0.2241008784507699</v>
       </c>
       <c r="K24">
-        <v>0.6385710478748123</v>
+        <v>1.135009065712438</v>
       </c>
       <c r="L24">
-        <v>0.09096577511134996</v>
+        <v>0.06235376883444843</v>
       </c>
       <c r="M24">
-        <v>0.4089657058020322</v>
+        <v>0.2135894275823667</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.246534668326376</v>
+        <v>1.127718604006475</v>
       </c>
       <c r="C25">
-        <v>0.2790114808217652</v>
+        <v>0.06566496280228762</v>
       </c>
       <c r="D25">
-        <v>0.1677098643225889</v>
+        <v>0.142678100179495</v>
       </c>
       <c r="E25">
-        <v>0.01826569385656773</v>
+        <v>0.01605789737768326</v>
       </c>
       <c r="F25">
-        <v>8.562754012966792</v>
+        <v>9.024318776643582</v>
       </c>
       <c r="G25">
-        <v>0.0008604826617034867</v>
+        <v>0.000894576572002274</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1504012657468152</v>
+        <v>0.2045133655432494</v>
       </c>
       <c r="K25">
-        <v>0.52118912800929</v>
+        <v>0.9438874657337522</v>
       </c>
       <c r="L25">
-        <v>0.08305209252967671</v>
+        <v>0.05876688343711933</v>
       </c>
       <c r="M25">
-        <v>0.3436481191586367</v>
+        <v>0.1848020073012044</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9907009472372295</v>
+        <v>0.8659139424078433</v>
       </c>
       <c r="C2">
-        <v>0.05371980253047326</v>
+        <v>0.09804663468763408</v>
       </c>
       <c r="D2">
-        <v>0.1221369566391104</v>
+        <v>0.03174255643016011</v>
       </c>
       <c r="E2">
-        <v>0.01645353692718121</v>
+        <v>0.03902016604147818</v>
       </c>
       <c r="F2">
-        <v>8.064260948238029</v>
+        <v>1.428444169861862</v>
       </c>
       <c r="G2">
-        <v>0.0009069466716799521</v>
+        <v>1.171095755785444</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.04322764263240453</v>
       </c>
       <c r="J2">
-        <v>0.1905223637353046</v>
+        <v>0.82711521329108</v>
       </c>
       <c r="K2">
-        <v>0.8125452889470637</v>
+        <v>0.9070472308487894</v>
       </c>
       <c r="L2">
-        <v>0.05677769732789884</v>
+        <v>0.07385051325189451</v>
       </c>
       <c r="M2">
-        <v>0.1653829632327231</v>
+        <v>0.8282353053433553</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.156530234505361</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.1913594890927186</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9031113059386087</v>
+        <v>0.7550503550611722</v>
       </c>
       <c r="C3">
-        <v>0.04592532467766119</v>
+        <v>0.08612064407826381</v>
       </c>
       <c r="D3">
-        <v>0.1084569630459384</v>
+        <v>0.02848054527353838</v>
       </c>
       <c r="E3">
-        <v>0.01675107937536247</v>
+        <v>0.03849974795283018</v>
       </c>
       <c r="F3">
-        <v>7.428218636729895</v>
+        <v>1.393692737775154</v>
       </c>
       <c r="G3">
-        <v>0.0009155988149061663</v>
+        <v>1.140916943300951</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0507271446748141</v>
       </c>
       <c r="J3">
-        <v>0.1812352745546804</v>
+        <v>0.8191065622557687</v>
       </c>
       <c r="K3">
-        <v>0.7282840700353574</v>
+        <v>0.8970585568739509</v>
       </c>
       <c r="L3">
-        <v>0.05578898046127989</v>
+        <v>0.07448064651322994</v>
       </c>
       <c r="M3">
-        <v>0.1531526912316394</v>
+        <v>0.7198922795774649</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1463683368832704</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.169250531778566</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8516067140136272</v>
+        <v>0.6870521617725274</v>
       </c>
       <c r="C4">
-        <v>0.04125502446058249</v>
+        <v>0.07892423677912319</v>
       </c>
       <c r="D4">
-        <v>0.1001416552889864</v>
+        <v>0.0265183094475745</v>
       </c>
       <c r="E4">
-        <v>0.01694821447952899</v>
+        <v>0.03819998482966458</v>
       </c>
       <c r="F4">
-        <v>7.043457907181931</v>
+        <v>1.373242322342151</v>
       </c>
       <c r="G4">
-        <v>0.0009210551610033596</v>
+        <v>1.123087853873471</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.05584092387812056</v>
       </c>
       <c r="J4">
-        <v>0.1756073593647756</v>
+        <v>0.8146394830619244</v>
       </c>
       <c r="K4">
-        <v>0.6785720915313647</v>
+        <v>0.8912751721889123</v>
       </c>
       <c r="L4">
-        <v>0.05534550626188306</v>
+        <v>0.07487658629745564</v>
       </c>
       <c r="M4">
-        <v>0.1460504289922042</v>
+        <v>0.6536740480131442</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1403716177325194</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1557789531434395</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8311469139289613</v>
+        <v>0.659119118915072</v>
       </c>
       <c r="C5">
-        <v>0.03937647250796061</v>
+        <v>0.07622546434217981</v>
       </c>
       <c r="D5">
-        <v>0.09676959775212168</v>
+        <v>0.02578483847564428</v>
       </c>
       <c r="E5">
-        <v>0.01703217211878183</v>
+        <v>0.03807398862517708</v>
       </c>
       <c r="F5">
-        <v>6.887923368158596</v>
+        <v>1.363821387234132</v>
       </c>
       <c r="G5">
-        <v>0.0009233163821135211</v>
+        <v>1.11466933470561</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.05816550128355402</v>
       </c>
       <c r="J5">
-        <v>0.1733297187371576</v>
+        <v>0.8122511356091877</v>
       </c>
       <c r="K5">
-        <v>0.658780272737161</v>
+        <v>0.88801742196042</v>
       </c>
       <c r="L5">
-        <v>0.05520408118231401</v>
+        <v>0.07500607498337519</v>
       </c>
       <c r="M5">
-        <v>0.1432516221414453</v>
+        <v>0.6270049656877035</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1381174338858457</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1503413326756053</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8277803072039092</v>
+        <v>0.6541948019371659</v>
       </c>
       <c r="C6">
-        <v>0.03906590596385939</v>
+        <v>0.07603141962034954</v>
       </c>
       <c r="D6">
-        <v>0.09621053589960837</v>
+        <v>0.02573270900654734</v>
       </c>
       <c r="E6">
-        <v>0.01704633185646598</v>
+        <v>0.03804267447477372</v>
       </c>
       <c r="F6">
-        <v>6.862167629965825</v>
+        <v>1.360679687168364</v>
       </c>
       <c r="G6">
-        <v>0.0009236941769461549</v>
+        <v>1.111667835435213</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.05870842019674694</v>
       </c>
       <c r="J6">
-        <v>0.1729523899336485</v>
+        <v>0.8110332377248284</v>
       </c>
       <c r="K6">
-        <v>0.6555208249100701</v>
+        <v>0.886277852482408</v>
       </c>
       <c r="L6">
-        <v>0.05518291983651125</v>
+        <v>0.07498605902536504</v>
       </c>
       <c r="M6">
-        <v>0.1427924526060451</v>
+        <v>0.6228859124650938</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1379070342526987</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1494744680976083</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8513287001561309</v>
+        <v>0.6858882696382125</v>
       </c>
       <c r="C7">
-        <v>0.04122959548525529</v>
+        <v>0.07957838312623977</v>
       </c>
       <c r="D7">
-        <v>0.100096117695756</v>
+        <v>0.02669701801186619</v>
       </c>
       <c r="E7">
-        <v>0.01694933210001004</v>
+        <v>0.03816910832142373</v>
       </c>
       <c r="F7">
-        <v>7.041355462323509</v>
+        <v>1.368775545604798</v>
       </c>
       <c r="G7">
-        <v>0.000921085501876792</v>
+        <v>1.118569649383048</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.05625972865479678</v>
       </c>
       <c r="J7">
-        <v>0.1755765821214297</v>
+        <v>0.8123496456641419</v>
       </c>
       <c r="K7">
-        <v>0.6783033386716824</v>
+        <v>0.8879470303652894</v>
       </c>
       <c r="L7">
-        <v>0.05534344218132148</v>
+        <v>0.07476518548813971</v>
       </c>
       <c r="M7">
-        <v>0.1460123057403599</v>
+        <v>0.654149199507728</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1407789064841296</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.155799727969935</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9600003540601563</v>
+        <v>0.8266066410785982</v>
       </c>
       <c r="C8">
-        <v>0.05100550371083301</v>
+        <v>0.09482855520789713</v>
       </c>
       <c r="D8">
-        <v>0.1173996699121602</v>
+        <v>0.03085924386220995</v>
       </c>
       <c r="E8">
-        <v>0.0165531264977643</v>
+        <v>0.03879809397375489</v>
       </c>
       <c r="F8">
-        <v>7.843634756183434</v>
+        <v>1.410553162147224</v>
       </c>
       <c r="G8">
-        <v>0.0009099010232397226</v>
+        <v>1.154732349274639</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.04616675550238369</v>
       </c>
       <c r="J8">
-        <v>0.1873029003163325</v>
+        <v>0.8212912526410037</v>
       </c>
       <c r="K8">
-        <v>0.7830448129531078</v>
+        <v>0.8992070099854814</v>
       </c>
       <c r="L8">
-        <v>0.05640167278950869</v>
+        <v>0.07391938589616576</v>
       </c>
       <c r="M8">
-        <v>0.1610770813552023</v>
+        <v>0.7919148899444792</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1535538906384986</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.1838359985857529</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.193333873160043</v>
+        <v>1.104946815654159</v>
       </c>
       <c r="C9">
-        <v>0.07131426586601464</v>
+        <v>0.1246507678515627</v>
       </c>
       <c r="D9">
-        <v>0.1522324770056258</v>
+        <v>0.03902529363876539</v>
       </c>
       <c r="E9">
-        <v>0.01589122574325774</v>
+        <v>0.04024432127628863</v>
       </c>
       <c r="F9">
-        <v>9.472277987653172</v>
+        <v>1.50769784358755</v>
       </c>
       <c r="G9">
-        <v>0.0008890344007271295</v>
+        <v>1.239479534520015</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.03001143731137645</v>
       </c>
       <c r="J9">
-        <v>0.2110337706642085</v>
+        <v>0.8465833513439094</v>
       </c>
       <c r="K9">
-        <v>1.006650525691839</v>
+        <v>0.9300626556680029</v>
       </c>
       <c r="L9">
-        <v>0.05986702599132343</v>
+        <v>0.07252785202589251</v>
       </c>
       <c r="M9">
-        <v>0.1941972306362025</v>
+        <v>1.063525253362684</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1798653258028153</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2395776221002741</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.380476556609835</v>
+        <v>1.310175726454304</v>
       </c>
       <c r="C10">
-        <v>0.08727604276650425</v>
+        <v>0.1478725333427775</v>
       </c>
       <c r="D10">
-        <v>0.1787309640589854</v>
+        <v>0.04535760556701263</v>
       </c>
       <c r="E10">
-        <v>0.01547585920359706</v>
+        <v>0.04139647240041278</v>
       </c>
       <c r="F10">
-        <v>10.71743651128537</v>
+        <v>1.582203096449106</v>
       </c>
       <c r="G10">
-        <v>0.0008742371772925139</v>
+        <v>1.303881718288864</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.02115336420466818</v>
       </c>
       <c r="J10">
-        <v>0.2291421998520775</v>
+        <v>0.8666347981472455</v>
       </c>
       <c r="K10">
-        <v>1.185372982911076</v>
+        <v>0.9531826465255193</v>
       </c>
       <c r="L10">
-        <v>0.0634039818845693</v>
+        <v>0.07149439871435881</v>
       </c>
       <c r="M10">
-        <v>0.2212529828557663</v>
+        <v>1.266089990032782</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2008324016334626</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.2813013649365743</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.469889683101201</v>
+        <v>1.402532130273414</v>
       </c>
       <c r="C11">
-        <v>0.09485332429906634</v>
+        <v>0.1598839209664931</v>
       </c>
       <c r="D11">
-        <v>0.1910731242816723</v>
+        <v>0.04861043879949278</v>
       </c>
       <c r="E11">
-        <v>0.01530252710780688</v>
+        <v>0.04189721703234639</v>
       </c>
       <c r="F11">
-        <v>11.29820370705193</v>
+        <v>1.610424109154309</v>
       </c>
       <c r="G11">
-        <v>0.0008675920492942938</v>
+        <v>1.327181415037074</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01830914943649642</v>
       </c>
       <c r="J11">
-        <v>0.2375834281439779</v>
+        <v>0.8727903622022808</v>
       </c>
       <c r="K11">
-        <v>1.270670156271279</v>
+        <v>0.9589696896314521</v>
       </c>
       <c r="L11">
-        <v>0.06526506186085612</v>
+        <v>0.07086382290187032</v>
       </c>
       <c r="M11">
-        <v>0.2342910449386579</v>
+        <v>1.360362563834599</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2114387563321856</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.3006208884284973</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.504446361924323</v>
+        <v>1.438306030028428</v>
       </c>
       <c r="C12">
-        <v>0.09777679485425494</v>
+        <v>0.1638512211370937</v>
       </c>
       <c r="D12">
-        <v>0.1957967117122905</v>
+        <v>0.04968500779695972</v>
       </c>
       <c r="E12">
-        <v>0.01523916067790765</v>
+        <v>0.04211561973092692</v>
       </c>
       <c r="F12">
-        <v>11.52054233394625</v>
+        <v>1.625031237555845</v>
       </c>
       <c r="G12">
-        <v>0.000865085349704517</v>
+        <v>1.339949449795412</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01706268122746657</v>
       </c>
       <c r="J12">
-        <v>0.240814574222469</v>
+        <v>0.8771319766048862</v>
       </c>
       <c r="K12">
-        <v>1.303626492578786</v>
+        <v>0.9640324851549877</v>
       </c>
       <c r="L12">
-        <v>0.06600959393063022</v>
+        <v>0.07071714586386157</v>
       </c>
       <c r="M12">
-        <v>0.239346479227855</v>
+        <v>1.39545991571589</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2151267633192475</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.307891758109875</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.496971502543573</v>
+        <v>1.430746875799372</v>
       </c>
       <c r="C13">
-        <v>0.09714461585285505</v>
+        <v>0.1628683467052667</v>
       </c>
       <c r="D13">
-        <v>0.1947770382992218</v>
+        <v>0.04941961614559887</v>
       </c>
       <c r="E13">
-        <v>0.01525270634865228</v>
+        <v>0.0420734928772184</v>
       </c>
       <c r="F13">
-        <v>11.47254426243916</v>
+        <v>1.622622591549174</v>
       </c>
       <c r="G13">
-        <v>0.0008656248294029721</v>
+        <v>1.33794955573687</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01726989640871324</v>
       </c>
       <c r="J13">
-        <v>0.2401170563889323</v>
+        <v>0.8765766524915506</v>
       </c>
       <c r="K13">
-        <v>1.29649816116239</v>
+        <v>0.9634985971817045</v>
       </c>
       <c r="L13">
-        <v>0.06584741524576287</v>
+        <v>0.07076678976358153</v>
       </c>
       <c r="M13">
-        <v>0.238252215752059</v>
+        <v>1.387749017998487</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2142530487396073</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.306309111005568</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.472718187055904</v>
+        <v>1.405536851256215</v>
       </c>
       <c r="C14">
-        <v>0.09509270163121641</v>
+        <v>0.1601557157887754</v>
       </c>
       <c r="D14">
-        <v>0.1914606848137907</v>
+        <v>0.04868440606158231</v>
       </c>
       <c r="E14">
-        <v>0.01529726825067179</v>
+        <v>0.0419172669230754</v>
       </c>
       <c r="F14">
-        <v>11.31644507293498</v>
+        <v>1.611938839761436</v>
       </c>
       <c r="G14">
-        <v>0.0008673856449450961</v>
+        <v>1.328550244082379</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01818005737238781</v>
       </c>
       <c r="J14">
-        <v>0.2378485293257526</v>
+        <v>0.8733087966774917</v>
       </c>
       <c r="K14">
-        <v>1.273367838852153</v>
+        <v>0.9596225399528535</v>
       </c>
       <c r="L14">
-        <v>0.06532549584531466</v>
+        <v>0.07085943300104702</v>
       </c>
       <c r="M14">
-        <v>0.2347045080412435</v>
+        <v>1.363185298567515</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2117083621995164</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3012119104250814</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.457955833121076</v>
+        <v>1.389812654513321</v>
       </c>
       <c r="C15">
-        <v>0.09384316940163728</v>
+        <v>0.158748964012176</v>
       </c>
       <c r="D15">
-        <v>0.189436087229339</v>
+        <v>0.04830135758638221</v>
       </c>
       <c r="E15">
-        <v>0.01532486020900725</v>
+        <v>0.04181205948267497</v>
       </c>
       <c r="F15">
-        <v>11.22115547073054</v>
+        <v>1.603951885190767</v>
       </c>
       <c r="G15">
-        <v>0.000868465367137068</v>
+        <v>1.321323972105006</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01886778758234264</v>
       </c>
       <c r="J15">
-        <v>0.236463671617372</v>
+        <v>0.8705633619239848</v>
       </c>
       <c r="K15">
-        <v>1.25928789856323</v>
+        <v>0.9561562307628364</v>
       </c>
       <c r="L15">
-        <v>0.06501109833185126</v>
+        <v>0.07088062316806543</v>
       </c>
       <c r="M15">
-        <v>0.2325472482084017</v>
+        <v>1.34844429681624</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2103084561253752</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2981241582861358</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.374726143897192</v>
+        <v>1.301705311001712</v>
       </c>
       <c r="C16">
-        <v>0.08678792569304505</v>
+        <v>0.1491802436089955</v>
       </c>
       <c r="D16">
-        <v>0.177930870373558</v>
+        <v>0.04570170446935862</v>
       </c>
       <c r="E16">
-        <v>0.01548750318489045</v>
+        <v>0.0412800842604657</v>
       </c>
       <c r="F16">
-        <v>10.67979975435301</v>
+        <v>1.567975691428458</v>
       </c>
       <c r="G16">
-        <v>0.0008746729604943175</v>
+        <v>1.28978351495094</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.02229767478456246</v>
       </c>
       <c r="J16">
-        <v>0.2285950865155186</v>
+        <v>0.8598522555347756</v>
       </c>
       <c r="K16">
-        <v>1.179885754284129</v>
+        <v>0.9434935777642153</v>
       </c>
       <c r="L16">
-        <v>0.06328772051302423</v>
+        <v>0.07123221273003644</v>
       </c>
       <c r="M16">
-        <v>0.2204167001127075</v>
+        <v>1.262374108846757</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2014231365095895</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2802992068128916</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.324819272680742</v>
+        <v>1.247775626532075</v>
       </c>
       <c r="C17">
-        <v>0.08254654832950337</v>
+        <v>0.1433724853571476</v>
       </c>
       <c r="D17">
-        <v>0.1709522541623016</v>
+        <v>0.04411996318404476</v>
       </c>
       <c r="E17">
-        <v>0.015591296273052</v>
+        <v>0.04096033917609532</v>
       </c>
       <c r="F17">
-        <v>10.35160618260568</v>
+        <v>1.546304384588723</v>
       </c>
       <c r="G17">
-        <v>0.0008785013520719471</v>
+        <v>1.270778098286044</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.02458859032509864</v>
       </c>
       <c r="J17">
-        <v>0.223823730714706</v>
+        <v>0.8534721358256974</v>
       </c>
       <c r="K17">
-        <v>1.132253342313675</v>
+        <v>0.9358994878872835</v>
       </c>
       <c r="L17">
-        <v>0.06229742764676161</v>
+        <v>0.07145117580974869</v>
       </c>
       <c r="M17">
-        <v>0.21317092003369</v>
+        <v>1.209768090842118</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1960587041972559</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.269416050790305</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.29651161556157</v>
+        <v>1.217531735411853</v>
       </c>
       <c r="C18">
-        <v>0.08013620043514891</v>
+        <v>0.1394194855078865</v>
       </c>
       <c r="D18">
-        <v>0.1669648712422998</v>
+        <v>0.04304622456675844</v>
       </c>
       <c r="E18">
-        <v>0.01565246386780661</v>
+        <v>0.04080428737651509</v>
       </c>
       <c r="F18">
-        <v>10.1641640783082</v>
+        <v>1.537733292978174</v>
       </c>
       <c r="G18">
-        <v>0.0008807116365477305</v>
+        <v>1.263774765065037</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.02564424367194373</v>
       </c>
       <c r="J18">
-        <v>0.2210981822324385</v>
+        <v>0.8518044959725728</v>
       </c>
       <c r="K18">
-        <v>1.105227054570491</v>
+        <v>0.934409150753666</v>
       </c>
       <c r="L18">
-        <v>0.06175133041782033</v>
+        <v>0.07167026008781718</v>
       </c>
       <c r="M18">
-        <v>0.2090711942308019</v>
+        <v>1.178840405770075</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1926165504254627</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.2630961362170616</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.286993049540456</v>
+        <v>1.206731647781339</v>
       </c>
       <c r="C19">
-        <v>0.07932486452126852</v>
+        <v>0.1385732988678967</v>
       </c>
       <c r="D19">
-        <v>0.1656191261832589</v>
+        <v>0.04281345755528321</v>
       </c>
       <c r="E19">
-        <v>0.01567342570881269</v>
+        <v>0.04073220759641494</v>
       </c>
       <c r="F19">
-        <v>10.10091708645948</v>
+        <v>1.531960228768114</v>
       </c>
       <c r="G19">
-        <v>0.0008814615037680257</v>
+        <v>1.258486853712441</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.02626290569534184</v>
       </c>
       <c r="J19">
-        <v>0.220178435767977</v>
+        <v>0.8497592309973356</v>
       </c>
       <c r="K19">
-        <v>1.096137749142827</v>
+        <v>0.9317422908174677</v>
       </c>
       <c r="L19">
-        <v>0.06157036579732278</v>
+        <v>0.07167370614907043</v>
       </c>
       <c r="M19">
-        <v>0.2076943760750503</v>
+        <v>1.16894798528665</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1917549763449031</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2610196356925165</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.330090245676274</v>
+        <v>1.253570019015569</v>
       </c>
       <c r="C20">
-        <v>0.08299497111784149</v>
+        <v>0.1439386326215555</v>
       </c>
       <c r="D20">
-        <v>0.171692335423117</v>
+        <v>0.04427461433158442</v>
       </c>
       <c r="E20">
-        <v>0.01558009516712877</v>
+        <v>0.04099612788763629</v>
       </c>
       <c r="F20">
-        <v>10.38640327213483</v>
+        <v>1.548890856258225</v>
       </c>
       <c r="G20">
-        <v>0.0008780929736325603</v>
+        <v>1.273087119936775</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.0243119090841537</v>
       </c>
       <c r="J20">
-        <v>0.2243296662109273</v>
+        <v>0.8542958478759886</v>
       </c>
       <c r="K20">
-        <v>1.137284977906006</v>
+        <v>0.9369221853928522</v>
       </c>
       <c r="L20">
-        <v>0.06240039041303902</v>
+        <v>0.07143493235990839</v>
       </c>
       <c r="M20">
-        <v>0.2139351325793903</v>
+        <v>1.215303258923427</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1965961441780806</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2705665702410158</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.479822326174144</v>
+        <v>1.412107172866371</v>
       </c>
       <c r="C21">
-        <v>0.09569385504084948</v>
+        <v>0.1616615033315725</v>
       </c>
       <c r="D21">
-        <v>0.1924333518810073</v>
+        <v>0.04908847726684229</v>
       </c>
       <c r="E21">
-        <v>0.01528411749842684</v>
+        <v>0.04193461658879905</v>
       </c>
       <c r="F21">
-        <v>11.36222663121669</v>
+        <v>1.610886879874627</v>
       </c>
       <c r="G21">
-        <v>0.0008668682115736548</v>
+        <v>1.327059763549727</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01823961694010645</v>
       </c>
       <c r="J21">
-        <v>0.238513864789752</v>
+        <v>0.8721131577539865</v>
       </c>
       <c r="K21">
-        <v>1.280143264979671</v>
+        <v>0.9576208050301744</v>
       </c>
       <c r="L21">
-        <v>0.06547768617861038</v>
+        <v>0.07073074949916247</v>
       </c>
       <c r="M21">
-        <v>0.2357432343079218</v>
+        <v>1.371217283546173</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2128864350779622</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.302794004419205</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.581794630193116</v>
+        <v>1.517223942086332</v>
       </c>
       <c r="C22">
-        <v>0.1043136511074891</v>
+        <v>0.172565303071508</v>
       </c>
       <c r="D22">
-        <v>0.2062842328747223</v>
+        <v>0.05204008886124001</v>
       </c>
       <c r="E22">
-        <v>0.0151039286975827</v>
+        <v>0.04260625669341245</v>
       </c>
       <c r="F22">
-        <v>12.01425389847412</v>
+        <v>1.658089412316286</v>
       </c>
       <c r="G22">
-        <v>0.0008595870118575264</v>
+        <v>1.368912874701934</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.0144814593554301</v>
       </c>
       <c r="J22">
-        <v>0.2479889155641146</v>
+        <v>0.8871430537834755</v>
       </c>
       <c r="K22">
-        <v>1.377379697820885</v>
+        <v>0.9757291357915392</v>
       </c>
       <c r="L22">
-        <v>0.06772273271557339</v>
+        <v>0.07040998320623437</v>
       </c>
       <c r="M22">
-        <v>0.2506924508063406</v>
+        <v>1.472778273556344</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2232806344683098</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3239305731259989</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.526963693474073</v>
+        <v>1.462082038224622</v>
       </c>
       <c r="C23">
-        <v>0.09968061824373819</v>
+        <v>0.1658686609625164</v>
       </c>
       <c r="D23">
-        <v>0.1988616510428756</v>
+        <v>0.05023364555393783</v>
       </c>
       <c r="E23">
-        <v>0.01519887728579095</v>
+        <v>0.04227999833553575</v>
       </c>
       <c r="F23">
-        <v>11.66482093809589</v>
+        <v>1.637811616285006</v>
       </c>
       <c r="G23">
-        <v>0.000863469097442617</v>
+        <v>1.351583284695934</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01604918384691167</v>
       </c>
       <c r="J23">
-        <v>0.2429112143769458</v>
+        <v>0.8816551195093041</v>
       </c>
       <c r="K23">
-        <v>1.325098866207952</v>
+        <v>0.9697930342358561</v>
       </c>
       <c r="L23">
-        <v>0.06650182293604701</v>
+        <v>0.07070248944926227</v>
       </c>
       <c r="M23">
-        <v>0.2426452451073864</v>
+        <v>1.417515054243353</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2171843349176328</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3125285989984832</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.327706047338097</v>
+        <v>1.252508928066788</v>
       </c>
       <c r="C24">
-        <v>0.08279215236225923</v>
+        <v>0.1423436298853176</v>
       </c>
       <c r="D24">
-        <v>0.1713576683271185</v>
+        <v>0.04384834308891072</v>
       </c>
       <c r="E24">
-        <v>0.01558515453056408</v>
+        <v>0.04103386319319746</v>
       </c>
       <c r="F24">
-        <v>10.3706676694259</v>
+        <v>1.555669612226481</v>
       </c>
       <c r="G24">
-        <v>0.0008782775724126754</v>
+        <v>1.280109268179558</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.02378482404701554</v>
       </c>
       <c r="J24">
-        <v>0.2241008784507699</v>
+        <v>0.8580195587649655</v>
       </c>
       <c r="K24">
-        <v>1.135009065712438</v>
+        <v>0.9424275809273084</v>
       </c>
       <c r="L24">
-        <v>0.06235376883444843</v>
+        <v>0.07163700552195884</v>
       </c>
       <c r="M24">
-        <v>0.2135894275823667</v>
+        <v>1.21124267001656</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1955341359803882</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.2698813222336938</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.127718604006475</v>
+        <v>1.028004600957104</v>
       </c>
       <c r="C25">
-        <v>0.06566496280228762</v>
+        <v>0.1177147524867337</v>
       </c>
       <c r="D25">
-        <v>0.142678100179495</v>
+        <v>0.0371204181555953</v>
       </c>
       <c r="E25">
-        <v>0.01605789737768326</v>
+        <v>0.03978282417656054</v>
       </c>
       <c r="F25">
-        <v>9.024318776643582</v>
+        <v>1.472781380316263</v>
       </c>
       <c r="G25">
-        <v>0.000894576572002274</v>
+        <v>1.207963841590924</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.03451116327314985</v>
       </c>
       <c r="J25">
-        <v>0.2045133655432494</v>
+        <v>0.8352979151069491</v>
       </c>
       <c r="K25">
-        <v>0.9438874657337522</v>
+        <v>0.9155258187580273</v>
       </c>
       <c r="L25">
-        <v>0.05876688343711933</v>
+        <v>0.07270272130418221</v>
       </c>
       <c r="M25">
-        <v>0.1848020073012044</v>
+        <v>0.9911655184816084</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1733047243048915</v>
       </c>
       <c r="O25">
+        <v>0.2245463089551123</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8659139424078433</v>
+        <v>0.8444017140761844</v>
       </c>
       <c r="C2">
-        <v>0.09804663468763408</v>
+        <v>0.110944732024862</v>
       </c>
       <c r="D2">
-        <v>0.03174255643016011</v>
+        <v>0.03909935772998807</v>
       </c>
       <c r="E2">
-        <v>0.03902016604147818</v>
+        <v>0.03697065455023285</v>
       </c>
       <c r="F2">
-        <v>1.428444169861862</v>
+        <v>1.226836371132151</v>
       </c>
       <c r="G2">
-        <v>1.171095755785444</v>
+        <v>0.9822970159022759</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.04322764263240453</v>
+        <v>0.03102978327489314</v>
       </c>
       <c r="J2">
-        <v>0.82711521329108</v>
+        <v>0.6990498552472246</v>
       </c>
       <c r="K2">
-        <v>0.9070472308487894</v>
+        <v>0.7395818298811037</v>
       </c>
       <c r="L2">
-        <v>0.07385051325189451</v>
+        <v>0.28083099048294</v>
       </c>
       <c r="M2">
-        <v>0.8282353053433553</v>
+        <v>0.2729869436738923</v>
       </c>
       <c r="N2">
-        <v>0.156530234505361</v>
+        <v>0.06468813898325365</v>
       </c>
       <c r="O2">
-        <v>0.1913594890927186</v>
+        <v>0.8627607180329449</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.177496441539752</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1933957227422134</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7550503550611722</v>
+        <v>0.7363514369245365</v>
       </c>
       <c r="C3">
-        <v>0.08612064407826381</v>
+        <v>0.09513813507712143</v>
       </c>
       <c r="D3">
-        <v>0.02848054527353838</v>
+        <v>0.03488473733382591</v>
       </c>
       <c r="E3">
-        <v>0.03849974795283018</v>
+        <v>0.03656373853939154</v>
       </c>
       <c r="F3">
-        <v>1.393692737775154</v>
+        <v>1.206282223835615</v>
       </c>
       <c r="G3">
-        <v>1.140916943300951</v>
+        <v>0.9715166372102715</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0507271446748141</v>
+        <v>0.03650009374828933</v>
       </c>
       <c r="J3">
-        <v>0.8191065622557687</v>
+        <v>0.6909237649714441</v>
       </c>
       <c r="K3">
-        <v>0.8970585568739509</v>
+        <v>0.739150194845223</v>
       </c>
       <c r="L3">
-        <v>0.07448064651322994</v>
+        <v>0.2840301267392391</v>
       </c>
       <c r="M3">
-        <v>0.7198922795774649</v>
+        <v>0.2714545258936454</v>
       </c>
       <c r="N3">
-        <v>0.1463683368832704</v>
+        <v>0.0654721311336548</v>
       </c>
       <c r="O3">
-        <v>0.169250531778566</v>
+        <v>0.7490512477512254</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1654576430298818</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1704591494176739</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6870521617725274</v>
+        <v>0.6699119662964961</v>
       </c>
       <c r="C4">
-        <v>0.07892423677912319</v>
+        <v>0.08564386164798066</v>
       </c>
       <c r="D4">
-        <v>0.0265183094475745</v>
+        <v>0.03235308305757201</v>
       </c>
       <c r="E4">
-        <v>0.03819998482966458</v>
+        <v>0.03633233014803583</v>
       </c>
       <c r="F4">
-        <v>1.373242322342151</v>
+        <v>1.194285644229865</v>
       </c>
       <c r="G4">
-        <v>1.123087853873471</v>
+        <v>0.9656063464029501</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.05584092387812056</v>
+        <v>0.04025293544142183</v>
       </c>
       <c r="J4">
-        <v>0.8146394830619244</v>
+        <v>0.6859800600358881</v>
       </c>
       <c r="K4">
-        <v>0.8912751721889123</v>
+        <v>0.7390776565033512</v>
       </c>
       <c r="L4">
-        <v>0.07487658629745564</v>
+        <v>0.2858925337513938</v>
       </c>
       <c r="M4">
-        <v>0.6536740480131442</v>
+        <v>0.2712989737038427</v>
       </c>
       <c r="N4">
-        <v>0.1403716177325194</v>
+        <v>0.06596188186458818</v>
       </c>
       <c r="O4">
-        <v>0.1557789531434395</v>
+        <v>0.6794765088278041</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1583450553305426</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1564566367293878</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.659119118915072</v>
+        <v>0.6425890292067322</v>
       </c>
       <c r="C5">
-        <v>0.07622546434217981</v>
+        <v>0.0820507202508054</v>
       </c>
       <c r="D5">
-        <v>0.02578483847564428</v>
+        <v>0.03139229277392275</v>
       </c>
       <c r="E5">
-        <v>0.03807398862517708</v>
+        <v>0.03623496438516227</v>
       </c>
       <c r="F5">
-        <v>1.363821387234132</v>
+        <v>1.188434551356181</v>
       </c>
       <c r="G5">
-        <v>1.11466933470561</v>
+        <v>0.96226890352834</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.05816550128355402</v>
+        <v>0.04200173529508344</v>
       </c>
       <c r="J5">
-        <v>0.8122511356091877</v>
+        <v>0.6833865767995491</v>
       </c>
       <c r="K5">
-        <v>0.88801742196042</v>
+        <v>0.7382915229178479</v>
       </c>
       <c r="L5">
-        <v>0.07500607498337519</v>
+        <v>0.2862659372001701</v>
       </c>
       <c r="M5">
-        <v>0.6270049656877035</v>
+        <v>0.2711923121336461</v>
       </c>
       <c r="N5">
-        <v>0.1381174338858457</v>
+        <v>0.06613840773001112</v>
       </c>
       <c r="O5">
-        <v>0.1503413326756053</v>
+        <v>0.6514105732484268</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1556418243566355</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1507950416953285</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6541948019371659</v>
+        <v>0.637782258524453</v>
       </c>
       <c r="C6">
-        <v>0.07603141962034954</v>
+        <v>0.08173533968343349</v>
       </c>
       <c r="D6">
-        <v>0.02573270900654734</v>
+        <v>0.03130373712387069</v>
       </c>
       <c r="E6">
-        <v>0.03804267447477372</v>
+        <v>0.03620972540228884</v>
       </c>
       <c r="F6">
-        <v>1.360679687168364</v>
+        <v>1.186113123493428</v>
       </c>
       <c r="G6">
-        <v>1.111667835435213</v>
+        <v>0.9603832824864043</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.05870842019674694</v>
+        <v>0.04245721584543727</v>
       </c>
       <c r="J6">
-        <v>0.8110332377248284</v>
+        <v>0.6822366748125148</v>
       </c>
       <c r="K6">
-        <v>0.886277852482408</v>
+        <v>0.737184043810462</v>
       </c>
       <c r="L6">
-        <v>0.07498605902536504</v>
+        <v>0.2858881246900857</v>
       </c>
       <c r="M6">
-        <v>0.6228859124650938</v>
+        <v>0.2708938639265419</v>
       </c>
       <c r="N6">
-        <v>0.1379070342526987</v>
+        <v>0.06613719876858415</v>
       </c>
       <c r="O6">
-        <v>0.1494744680976083</v>
+        <v>0.6470398919679781</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1553532137312175</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1498878871330263</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6858882696382125</v>
+        <v>0.6690229043454963</v>
       </c>
       <c r="C7">
-        <v>0.07957838312623977</v>
+        <v>0.08608528617378397</v>
       </c>
       <c r="D7">
-        <v>0.02669701801186619</v>
+        <v>0.03270810043380123</v>
       </c>
       <c r="E7">
-        <v>0.03816910832142373</v>
+        <v>0.03633251418898453</v>
       </c>
       <c r="F7">
-        <v>1.368775545604798</v>
+        <v>1.188378686205169</v>
       </c>
       <c r="G7">
-        <v>1.118569649383048</v>
+        <v>0.9644390958575286</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.05625972865479678</v>
+        <v>0.04071290757332768</v>
       </c>
       <c r="J7">
-        <v>0.8123496456641419</v>
+        <v>0.6778518093187955</v>
       </c>
       <c r="K7">
-        <v>0.8879470303652894</v>
+        <v>0.7351463856880827</v>
       </c>
       <c r="L7">
-        <v>0.07476518548813971</v>
+        <v>0.2841761252111255</v>
       </c>
       <c r="M7">
-        <v>0.654149199507728</v>
+        <v>0.2700932402088441</v>
       </c>
       <c r="N7">
-        <v>0.1407789064841296</v>
+        <v>0.06586210134222537</v>
       </c>
       <c r="O7">
-        <v>0.155799727969935</v>
+        <v>0.6795677219947152</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1587304374028662</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1564989620701382</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8266066410785982</v>
+        <v>0.8068857008192651</v>
       </c>
       <c r="C8">
-        <v>0.09482855520789713</v>
+        <v>0.1055507683140746</v>
       </c>
       <c r="D8">
-        <v>0.03085924386220995</v>
+        <v>0.03848303972852563</v>
       </c>
       <c r="E8">
-        <v>0.03879809397375489</v>
+        <v>0.03688308211330948</v>
       </c>
       <c r="F8">
-        <v>1.410553162147224</v>
+        <v>1.207789762211419</v>
       </c>
       <c r="G8">
-        <v>1.154732349274639</v>
+        <v>0.9821323970576969</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.04616675550238369</v>
+        <v>0.03339298728561158</v>
       </c>
       <c r="J8">
-        <v>0.8212912526410037</v>
+        <v>0.6736917056601754</v>
       </c>
       <c r="K8">
-        <v>0.8992070099854814</v>
+        <v>0.7318373823053861</v>
       </c>
       <c r="L8">
-        <v>0.07391938589616576</v>
+        <v>0.2788342183580781</v>
       </c>
       <c r="M8">
-        <v>0.7919148899444792</v>
+        <v>0.2697749562955387</v>
       </c>
       <c r="N8">
-        <v>0.1535538906384986</v>
+        <v>0.06479160808652562</v>
       </c>
       <c r="O8">
-        <v>0.1838359985857529</v>
+        <v>0.8234750839827143</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1738319249788347</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1856859016049768</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.104946815654159</v>
+        <v>1.077299276799408</v>
       </c>
       <c r="C9">
-        <v>0.1246507678515627</v>
+        <v>0.1451780581567732</v>
       </c>
       <c r="D9">
-        <v>0.03902529363876539</v>
+        <v>0.04928560635070056</v>
       </c>
       <c r="E9">
-        <v>0.04024432127628863</v>
+        <v>0.03805895030086504</v>
       </c>
       <c r="F9">
-        <v>1.50769784358755</v>
+        <v>1.265388720018606</v>
       </c>
       <c r="G9">
-        <v>1.239479534520015</v>
+        <v>1.02007741695283</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.03001143731137645</v>
+        <v>0.02158588273325179</v>
       </c>
       <c r="J9">
-        <v>0.8465833513439094</v>
+        <v>0.6912000972010475</v>
       </c>
       <c r="K9">
-        <v>0.9300626556680029</v>
+        <v>0.7362026406745343</v>
       </c>
       <c r="L9">
-        <v>0.07252785202589251</v>
+        <v>0.2714635870164201</v>
       </c>
       <c r="M9">
-        <v>1.063525253362684</v>
+        <v>0.278444238403555</v>
       </c>
       <c r="N9">
-        <v>0.1798653258028153</v>
+        <v>0.06296819313704027</v>
       </c>
       <c r="O9">
-        <v>0.2395776221002741</v>
+        <v>1.107774446714245</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2050326769109745</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2433798082726781</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.310175726454304</v>
+        <v>1.276950861078149</v>
       </c>
       <c r="C10">
-        <v>0.1478725333427775</v>
+        <v>0.1743959456268556</v>
       </c>
       <c r="D10">
-        <v>0.04535760556701263</v>
+        <v>0.05872742821888011</v>
       </c>
       <c r="E10">
-        <v>0.04139647240041278</v>
+        <v>0.03916822055271396</v>
       </c>
       <c r="F10">
-        <v>1.582203096449106</v>
+        <v>1.297689082790896</v>
       </c>
       <c r="G10">
-        <v>1.303881718288864</v>
+        <v>1.065906330551215</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.02115336420466818</v>
+        <v>0.01535156158933493</v>
       </c>
       <c r="J10">
-        <v>0.8666347981472455</v>
+        <v>0.6701429004761934</v>
       </c>
       <c r="K10">
-        <v>0.9531826465255193</v>
+        <v>0.7324716499380628</v>
       </c>
       <c r="L10">
-        <v>0.07149439871435881</v>
+        <v>0.2627381021231052</v>
       </c>
       <c r="M10">
-        <v>1.266089990032782</v>
+        <v>0.2855743269666462</v>
       </c>
       <c r="N10">
-        <v>0.2008324016334626</v>
+        <v>0.06154238168570636</v>
       </c>
       <c r="O10">
-        <v>0.2813013649365743</v>
+        <v>1.317180718440056</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2297161672006922</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2865554819768619</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.402532130273414</v>
+        <v>1.368844959855664</v>
       </c>
       <c r="C11">
-        <v>0.1598839209664931</v>
+        <v>0.1863439900872663</v>
       </c>
       <c r="D11">
-        <v>0.04861043879949278</v>
+        <v>0.0654175571023714</v>
       </c>
       <c r="E11">
-        <v>0.04189721703234639</v>
+        <v>0.03994692599918181</v>
       </c>
       <c r="F11">
-        <v>1.610424109154309</v>
+        <v>1.286682520851556</v>
       </c>
       <c r="G11">
-        <v>1.327181415037074</v>
+        <v>1.110095515682715</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01830914943649642</v>
+        <v>0.01369733899736758</v>
       </c>
       <c r="J11">
-        <v>0.8727903622022808</v>
+        <v>0.6046643167965158</v>
       </c>
       <c r="K11">
-        <v>0.9589696896314521</v>
+        <v>0.7152331745824512</v>
       </c>
       <c r="L11">
-        <v>0.07086382290187032</v>
+        <v>0.2533430216496946</v>
       </c>
       <c r="M11">
-        <v>1.360362563834599</v>
+        <v>0.2831886854666692</v>
       </c>
       <c r="N11">
-        <v>0.2114387563321856</v>
+        <v>0.06064128075683506</v>
       </c>
       <c r="O11">
-        <v>0.3006208884284973</v>
+        <v>1.410825469204894</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.241931868347308</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.306784145201533</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.438306030028428</v>
+        <v>1.404637785020896</v>
       </c>
       <c r="C12">
-        <v>0.1638512211370937</v>
+        <v>0.1898383469955292</v>
       </c>
       <c r="D12">
-        <v>0.04968500779695972</v>
+        <v>0.06806607577984636</v>
       </c>
       <c r="E12">
-        <v>0.04211561973092692</v>
+        <v>0.04030813979806425</v>
       </c>
       <c r="F12">
-        <v>1.625031237555845</v>
+        <v>1.283083647965299</v>
       </c>
       <c r="G12">
-        <v>1.339949449795412</v>
+        <v>1.134135757866218</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01706268122746657</v>
+        <v>0.012845722068902</v>
       </c>
       <c r="J12">
-        <v>0.8771319766048862</v>
+        <v>0.5767868576418635</v>
       </c>
       <c r="K12">
-        <v>0.9640324851549877</v>
+        <v>0.7094329799943253</v>
       </c>
       <c r="L12">
-        <v>0.07071714586386157</v>
+        <v>0.2500955279867512</v>
       </c>
       <c r="M12">
-        <v>1.39545991571589</v>
+        <v>0.2826017642473566</v>
       </c>
       <c r="N12">
-        <v>0.2151267633192475</v>
+        <v>0.06034413517987858</v>
       </c>
       <c r="O12">
-        <v>0.307891758109875</v>
+        <v>1.445236303266228</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.246223033856424</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.3144358775681866</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.430746875799372</v>
+        <v>1.39705086932068</v>
       </c>
       <c r="C13">
-        <v>0.1628683467052667</v>
+        <v>0.1889602892627664</v>
       </c>
       <c r="D13">
-        <v>0.04941961614559887</v>
+        <v>0.06744581914642822</v>
       </c>
       <c r="E13">
-        <v>0.0420734928772184</v>
+        <v>0.0402327869613881</v>
       </c>
       <c r="F13">
-        <v>1.622622591549174</v>
+        <v>1.284566351696327</v>
       </c>
       <c r="G13">
-        <v>1.33794955573687</v>
+        <v>1.129396610094489</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01726989640871324</v>
+        <v>0.01296129240422772</v>
       </c>
       <c r="J13">
-        <v>0.8765766524915506</v>
+        <v>0.5831995130197498</v>
       </c>
       <c r="K13">
-        <v>0.9634985971817045</v>
+        <v>0.711158373570818</v>
       </c>
       <c r="L13">
-        <v>0.07076678976358153</v>
+        <v>0.2509554533716205</v>
       </c>
       <c r="M13">
-        <v>1.387749017998487</v>
+        <v>0.2829204904308256</v>
       </c>
       <c r="N13">
-        <v>0.2142530487396073</v>
+        <v>0.06042034179934408</v>
       </c>
       <c r="O13">
-        <v>0.306309111005568</v>
+        <v>1.437703435792059</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.2452211938690851</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3127708503245543</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.405536851256215</v>
+        <v>1.371840941472698</v>
       </c>
       <c r="C14">
-        <v>0.1601557157887754</v>
+        <v>0.1865783508410175</v>
       </c>
       <c r="D14">
-        <v>0.04868440606158231</v>
+        <v>0.0656140887288359</v>
       </c>
       <c r="E14">
-        <v>0.0419172669230754</v>
+        <v>0.03997762986216458</v>
       </c>
       <c r="F14">
-        <v>1.611938839761436</v>
+        <v>1.286691225554705</v>
       </c>
       <c r="G14">
-        <v>1.328550244082379</v>
+        <v>1.112253867607649</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.01818005737238781</v>
+        <v>0.01359791497799101</v>
       </c>
       <c r="J14">
-        <v>0.8733087966774917</v>
+        <v>0.6025571955120341</v>
       </c>
       <c r="K14">
-        <v>0.9596225399528535</v>
+        <v>0.7149612307984796</v>
       </c>
       <c r="L14">
-        <v>0.07085943300104702</v>
+        <v>0.2531454595109004</v>
       </c>
       <c r="M14">
-        <v>1.363185298567515</v>
+        <v>0.283222770693456</v>
       </c>
       <c r="N14">
-        <v>0.2117083621995164</v>
+        <v>0.06062207828437494</v>
       </c>
       <c r="O14">
-        <v>0.3012119104250814</v>
+        <v>1.413605053376273</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.2422518624291143</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3074063213968827</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.389812654513321</v>
+        <v>1.356173931937178</v>
       </c>
       <c r="C15">
-        <v>0.158748964012176</v>
+        <v>0.1853541592539898</v>
       </c>
       <c r="D15">
-        <v>0.04830135758638221</v>
+        <v>0.06460172435351552</v>
       </c>
       <c r="E15">
-        <v>0.04181205948267497</v>
+        <v>0.03981846589190141</v>
       </c>
       <c r="F15">
-        <v>1.603951885190767</v>
+        <v>1.286481897380114</v>
       </c>
       <c r="G15">
-        <v>1.321323972105006</v>
+        <v>1.101083392114077</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.01886778758234264</v>
+        <v>0.01413072866901466</v>
       </c>
       <c r="J15">
-        <v>0.8705633619239848</v>
+        <v>0.6133686333843116</v>
       </c>
       <c r="K15">
-        <v>0.9561562307628364</v>
+        <v>0.7162817250635953</v>
       </c>
       <c r="L15">
-        <v>0.07088062316806543</v>
+        <v>0.254144383496687</v>
       </c>
       <c r="M15">
-        <v>1.34844429681624</v>
+        <v>0.2830060499172724</v>
       </c>
       <c r="N15">
-        <v>0.2103084561253752</v>
+        <v>0.06072062829564118</v>
       </c>
       <c r="O15">
-        <v>0.2981241582861358</v>
+        <v>1.399068982597953</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.2405878171856841</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.304156803881547</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.301705311001712</v>
+        <v>1.26873859331198</v>
       </c>
       <c r="C16">
-        <v>0.1491802436089955</v>
+        <v>0.1759181300539012</v>
       </c>
       <c r="D16">
-        <v>0.04570170446935862</v>
+        <v>0.05891171953100383</v>
       </c>
       <c r="E16">
-        <v>0.0412800842604657</v>
+        <v>0.03904935298589152</v>
       </c>
       <c r="F16">
-        <v>1.567975691428458</v>
+        <v>1.287913186194942</v>
       </c>
       <c r="G16">
-        <v>1.28978351495094</v>
+        <v>1.053231614839049</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.02229767478456246</v>
+        <v>0.0165329860396195</v>
       </c>
       <c r="J16">
-        <v>0.8598522555347756</v>
+        <v>0.6687966101943061</v>
       </c>
       <c r="K16">
-        <v>0.9434935777642153</v>
+        <v>0.7262895709316624</v>
       </c>
       <c r="L16">
-        <v>0.07123221273003644</v>
+        <v>0.2607717675633445</v>
       </c>
       <c r="M16">
-        <v>1.262374108846757</v>
+        <v>0.2828532219688498</v>
       </c>
       <c r="N16">
-        <v>0.2014231365095895</v>
+        <v>0.06139966166797262</v>
       </c>
       <c r="O16">
-        <v>0.2802992068128916</v>
+        <v>1.313311252277515</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.2301804703567853</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.285479735985632</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.247775626532075</v>
+        <v>1.21563886405832</v>
       </c>
       <c r="C17">
-        <v>0.1433724853571476</v>
+        <v>0.1695539311373579</v>
       </c>
       <c r="D17">
-        <v>0.04411996318404476</v>
+        <v>0.05588637457604051</v>
       </c>
       <c r="E17">
-        <v>0.04096033917609532</v>
+        <v>0.03864969680786601</v>
       </c>
       <c r="F17">
-        <v>1.546304384588723</v>
+        <v>1.28455371119199</v>
       </c>
       <c r="G17">
-        <v>1.270778098286044</v>
+        <v>1.030617962366321</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.02458859032509864</v>
+        <v>0.01816352038028857</v>
       </c>
       <c r="J17">
-        <v>0.8534721358256974</v>
+        <v>0.6926077801307144</v>
       </c>
       <c r="K17">
-        <v>0.9358994878872835</v>
+        <v>0.729993030359168</v>
       </c>
       <c r="L17">
-        <v>0.07145117580974869</v>
+        <v>0.2640146610122898</v>
       </c>
       <c r="M17">
-        <v>1.209768090842118</v>
+        <v>0.2819064106454618</v>
       </c>
       <c r="N17">
-        <v>0.1960587041972559</v>
+        <v>0.06178784572531626</v>
       </c>
       <c r="O17">
-        <v>0.269416050790305</v>
+        <v>1.260078516275115</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.2238651750736835</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2741271082291874</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.217531735411853</v>
+        <v>1.185959619232477</v>
       </c>
       <c r="C18">
-        <v>0.1394194855078865</v>
+        <v>0.164973397908355</v>
       </c>
       <c r="D18">
-        <v>0.04304622456675844</v>
+        <v>0.05412955239520301</v>
       </c>
       <c r="E18">
-        <v>0.04080428737651509</v>
+        <v>0.03846662338205853</v>
       </c>
       <c r="F18">
-        <v>1.537733292978174</v>
+        <v>1.284222058566485</v>
       </c>
       <c r="G18">
-        <v>1.263774765065037</v>
+        <v>1.02295754412485</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.02564424367194373</v>
+        <v>0.01878879482275941</v>
       </c>
       <c r="J18">
-        <v>0.8518044959725728</v>
+        <v>0.7037284782129518</v>
       </c>
       <c r="K18">
-        <v>0.934409150753666</v>
+        <v>0.7334322624495897</v>
       </c>
       <c r="L18">
-        <v>0.07167026008781718</v>
+        <v>0.2663606841690331</v>
       </c>
       <c r="M18">
-        <v>1.178840405770075</v>
+        <v>0.2819141742045126</v>
       </c>
       <c r="N18">
-        <v>0.1926165504254627</v>
+        <v>0.06206184349036903</v>
       </c>
       <c r="O18">
-        <v>0.2630961362170616</v>
+        <v>1.228544956895917</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.2198774302116391</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2675618754714044</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.206731647781339</v>
+        <v>1.175419236871221</v>
       </c>
       <c r="C19">
-        <v>0.1385732988678967</v>
+        <v>0.1639402925671902</v>
       </c>
       <c r="D19">
-        <v>0.04281345755528321</v>
+        <v>0.05369550096113329</v>
       </c>
       <c r="E19">
-        <v>0.04073220759641494</v>
+        <v>0.03839157972562646</v>
       </c>
       <c r="F19">
-        <v>1.531960228768114</v>
+        <v>1.281460285719803</v>
       </c>
       <c r="G19">
-        <v>1.258486853712441</v>
+        <v>1.0183508106864</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.02626290569534184</v>
+        <v>0.01929229121710652</v>
       </c>
       <c r="J19">
-        <v>0.8497592309973356</v>
+        <v>0.7055408448709386</v>
       </c>
       <c r="K19">
-        <v>0.9317422908174677</v>
+        <v>0.7327651267915698</v>
       </c>
       <c r="L19">
-        <v>0.07167370614907043</v>
+        <v>0.2664919560747521</v>
       </c>
       <c r="M19">
-        <v>1.16894798528665</v>
+        <v>0.2812190868978668</v>
       </c>
       <c r="N19">
-        <v>0.1917549763449031</v>
+        <v>0.06210549261061082</v>
       </c>
       <c r="O19">
-        <v>0.2610196356925165</v>
+        <v>1.218369881698095</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2188255628196316</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2654011065588158</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.253570019015569</v>
+        <v>1.221325170671065</v>
       </c>
       <c r="C20">
-        <v>0.1439386326215555</v>
+        <v>0.1701965159093675</v>
       </c>
       <c r="D20">
-        <v>0.04427461433158442</v>
+        <v>0.056178021557308</v>
       </c>
       <c r="E20">
-        <v>0.04099612788763629</v>
+        <v>0.03869139819454404</v>
       </c>
       <c r="F20">
-        <v>1.548890856258225</v>
+        <v>1.285311325461151</v>
       </c>
       <c r="G20">
-        <v>1.273087119936775</v>
+        <v>1.033029703487102</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.0243119090841537</v>
+        <v>0.01795467716741417</v>
       </c>
       <c r="J20">
-        <v>0.8542958478759886</v>
+        <v>0.6906181623097183</v>
       </c>
       <c r="K20">
-        <v>0.9369221853928522</v>
+        <v>0.7298601482284539</v>
       </c>
       <c r="L20">
-        <v>0.07143493235990839</v>
+        <v>0.2637625515385125</v>
       </c>
       <c r="M20">
-        <v>1.215303258923427</v>
+        <v>0.2821040306602853</v>
       </c>
       <c r="N20">
-        <v>0.1965961441780806</v>
+        <v>0.06175238490246571</v>
       </c>
       <c r="O20">
-        <v>0.2705665702410158</v>
+        <v>1.265713313594404</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2245048677160781</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2753260715152379</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.412107172866371</v>
+        <v>1.379259950519895</v>
       </c>
       <c r="C21">
-        <v>0.1616615033315725</v>
+        <v>0.1870145262993645</v>
       </c>
       <c r="D21">
-        <v>0.04908847726684229</v>
+        <v>0.06705504968254417</v>
       </c>
       <c r="E21">
-        <v>0.04193461658879905</v>
+        <v>0.04013101195966051</v>
       </c>
       <c r="F21">
-        <v>1.610886879874627</v>
+        <v>1.275413516910092</v>
       </c>
       <c r="G21">
-        <v>1.327059763549727</v>
+        <v>1.12368283285798</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01823961694010645</v>
+        <v>0.01381668479060849</v>
       </c>
       <c r="J21">
-        <v>0.8721131577539865</v>
+        <v>0.5780236891235404</v>
       </c>
       <c r="K21">
-        <v>0.9576208050301744</v>
+        <v>0.7073812459245943</v>
       </c>
       <c r="L21">
-        <v>0.07073074949916247</v>
+        <v>0.2502854412610702</v>
       </c>
       <c r="M21">
-        <v>1.371217283546173</v>
+        <v>0.2805112938050414</v>
       </c>
       <c r="N21">
-        <v>0.2128864350779622</v>
+        <v>0.06044441475702111</v>
       </c>
       <c r="O21">
-        <v>0.302794004419205</v>
+        <v>1.420234500137497</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2435095817862845</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3091663397703215</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.517223942086332</v>
+        <v>1.484074837387965</v>
       </c>
       <c r="C22">
-        <v>0.172565303071508</v>
+        <v>0.1968207380157452</v>
       </c>
       <c r="D22">
-        <v>0.05204008886124001</v>
+        <v>0.07443824989034908</v>
       </c>
       <c r="E22">
-        <v>0.04260625669341245</v>
+        <v>0.04119321893178984</v>
       </c>
       <c r="F22">
-        <v>1.658089412316286</v>
+        <v>1.271070164499207</v>
       </c>
       <c r="G22">
-        <v>1.368912874701934</v>
+        <v>1.195976158830916</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.0144814593554301</v>
+        <v>0.01107917214297238</v>
       </c>
       <c r="J22">
-        <v>0.8871430537834755</v>
+        <v>0.5104609876635777</v>
       </c>
       <c r="K22">
-        <v>0.9757291357915392</v>
+        <v>0.6944462667584048</v>
       </c>
       <c r="L22">
-        <v>0.07040998320623437</v>
+        <v>0.2423077047426645</v>
       </c>
       <c r="M22">
-        <v>1.472778273556344</v>
+        <v>0.2804355112878909</v>
       </c>
       <c r="N22">
-        <v>0.2232806344683098</v>
+        <v>0.05967250846388605</v>
       </c>
       <c r="O22">
-        <v>0.3239305731259989</v>
+        <v>1.520129904499584</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2556777051387371</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3313713906720395</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.462082038224622</v>
+        <v>1.428446334614762</v>
       </c>
       <c r="C23">
-        <v>0.1658686609625164</v>
+        <v>0.1913876491840369</v>
       </c>
       <c r="D23">
-        <v>0.05023364555393783</v>
+        <v>0.06970175354228303</v>
       </c>
       <c r="E23">
-        <v>0.04227999833553575</v>
+        <v>0.04057449242914934</v>
       </c>
       <c r="F23">
-        <v>1.637811616285006</v>
+        <v>1.282674583253865</v>
       </c>
       <c r="G23">
-        <v>1.351583284695934</v>
+        <v>1.153764155302284</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01604918384691167</v>
+        <v>0.01204739193211068</v>
       </c>
       <c r="J23">
-        <v>0.8816551195093041</v>
+        <v>0.5588814331704128</v>
       </c>
       <c r="K23">
-        <v>0.9697930342358561</v>
+        <v>0.7071042222461799</v>
       </c>
       <c r="L23">
-        <v>0.07070248944926227</v>
+        <v>0.248494523830761</v>
       </c>
       <c r="M23">
-        <v>1.417515054243353</v>
+        <v>0.2828103279192007</v>
       </c>
       <c r="N23">
-        <v>0.2171843349176328</v>
+        <v>0.06019853800139696</v>
       </c>
       <c r="O23">
-        <v>0.3125285989984832</v>
+        <v>1.466742738474977</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2486712821827126</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.319332137942304</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.252508928066788</v>
+        <v>1.220189680751901</v>
       </c>
       <c r="C24">
-        <v>0.1423436298853176</v>
+        <v>0.1683953700162988</v>
       </c>
       <c r="D24">
-        <v>0.04384834308891072</v>
+        <v>0.05567483848269461</v>
       </c>
       <c r="E24">
-        <v>0.04103386319319746</v>
+        <v>0.03871952944467516</v>
       </c>
       <c r="F24">
-        <v>1.555669612226481</v>
+        <v>1.291531184158316</v>
       </c>
       <c r="G24">
-        <v>1.280109268179558</v>
+        <v>1.03849487380468</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.02378482404701554</v>
+        <v>0.0173152096009126</v>
       </c>
       <c r="J24">
-        <v>0.8580195587649655</v>
+        <v>0.6948104819906575</v>
       </c>
       <c r="K24">
-        <v>0.9424275809273084</v>
+        <v>0.7345279113751673</v>
       </c>
       <c r="L24">
-        <v>0.07163700552195884</v>
+        <v>0.2655311511135032</v>
       </c>
       <c r="M24">
-        <v>1.21124267001656</v>
+        <v>0.2838068927819855</v>
       </c>
       <c r="N24">
-        <v>0.1955341359803882</v>
+        <v>0.06189769822238311</v>
       </c>
       <c r="O24">
-        <v>0.2698813222336938</v>
+        <v>1.261691346455194</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2234096813754576</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2746308734313203</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.028004600957104</v>
+        <v>1.002478220600636</v>
       </c>
       <c r="C25">
-        <v>0.1177147524867337</v>
+        <v>0.136078017705259</v>
       </c>
       <c r="D25">
-        <v>0.0371204181555953</v>
+        <v>0.04640674875714268</v>
       </c>
       <c r="E25">
-        <v>0.03978282417656054</v>
+        <v>0.03763966441447764</v>
       </c>
       <c r="F25">
-        <v>1.472781380316263</v>
+        <v>1.245677797423212</v>
       </c>
       <c r="G25">
-        <v>1.207963841590924</v>
+        <v>0.9989797234137114</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.03451116327314985</v>
+        <v>0.02505621326942453</v>
       </c>
       <c r="J25">
-        <v>0.8352979151069491</v>
+        <v>0.6915319277071887</v>
       </c>
       <c r="K25">
-        <v>0.9155258187580273</v>
+        <v>0.7319614653660054</v>
       </c>
       <c r="L25">
-        <v>0.07270272130418221</v>
+        <v>0.272441041239869</v>
       </c>
       <c r="M25">
-        <v>0.9911655184816084</v>
+        <v>0.2743660301895261</v>
       </c>
       <c r="N25">
-        <v>0.1733047243048915</v>
+        <v>0.06334571993536109</v>
       </c>
       <c r="O25">
-        <v>0.2245463089551123</v>
+        <v>1.032440891253827</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1971142190686805</v>
       </c>
       <c r="Q25">
+        <v>0.2277891931692508</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
